--- a/biology/Botanique/Phycologue/Phycologue.xlsx
+++ b/biology/Botanique/Phycologue/Phycologue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La phycologie est la science qui étudie les algues. On utilise parfois le terme d'algologie mais ce dernier désigne aussi la branche de la médecine consacrée au traitement de la douleur, aussi est-il peu à peu abandonné par les botanistes, phycologues (ou algologues) et microbiologistes.
 Justin Girod-Chantrans (1750-1841), est considéré comme le père, avec Jean Pierre Étienne Vaucher (1763-1841), de la phycologie française.
